--- a/explainable_low_disc/test/class_label.xlsx
+++ b/explainable_low_disc/test/class_label.xlsx
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -708,7 +708,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1196,7 +1196,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1348,7 +1348,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -1660,7 +1660,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -1724,7 +1724,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -2172,7 +2172,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -2260,7 +2260,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -3756,7 +3756,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -4740,7 +4740,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -5284,7 +5284,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -5356,7 +5356,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -5436,7 +5436,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -5892,7 +5892,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -6636,7 +6636,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -6948,7 +6948,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -7180,7 +7180,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845">
@@ -7324,7 +7324,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863">
@@ -8324,7 +8324,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988">
@@ -8820,7 +8820,7 @@
         <v>1047</v>
       </c>
       <c r="B1049" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -8852,7 +8852,7 @@
         <v>1051</v>
       </c>
       <c r="B1053" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054">
@@ -8980,7 +8980,7 @@
         <v>1067</v>
       </c>
       <c r="B1069" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070">
@@ -9236,7 +9236,7 @@
         <v>1099</v>
       </c>
       <c r="B1101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102">
@@ -9444,7 +9444,7 @@
         <v>1125</v>
       </c>
       <c r="B1127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128">
@@ -10300,7 +10300,7 @@
         <v>1232</v>
       </c>
       <c r="B1234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235">
@@ -10476,7 +10476,7 @@
         <v>1254</v>
       </c>
       <c r="B1256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257">
@@ -11340,7 +11340,7 @@
         <v>1362</v>
       </c>
       <c r="B1364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1365">
@@ -12372,7 +12372,7 @@
         <v>1491</v>
       </c>
       <c r="B1493" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1494">
@@ -12516,7 +12516,7 @@
         <v>1509</v>
       </c>
       <c r="B1511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1512">
@@ -12996,7 +12996,7 @@
         <v>1569</v>
       </c>
       <c r="B1571" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1572">
@@ -14900,7 +14900,7 @@
         <v>1807</v>
       </c>
       <c r="B1809" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1810">
@@ -15284,7 +15284,7 @@
         <v>1855</v>
       </c>
       <c r="B1857" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1858">
@@ -15508,7 +15508,7 @@
         <v>1883</v>
       </c>
       <c r="B1885" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1886">
@@ -16268,7 +16268,7 @@
         <v>1978</v>
       </c>
       <c r="B1980" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1981">
@@ -16508,7 +16508,7 @@
         <v>2008</v>
       </c>
       <c r="B2010" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2011">
@@ -17516,7 +17516,7 @@
         <v>2134</v>
       </c>
       <c r="B2136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2137">
@@ -17676,7 +17676,7 @@
         <v>2154</v>
       </c>
       <c r="B2156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2157">
@@ -17700,7 +17700,7 @@
         <v>2157</v>
       </c>
       <c r="B2159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2160">
@@ -18324,7 +18324,7 @@
         <v>2235</v>
       </c>
       <c r="B2237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2238">
@@ -19012,7 +19012,7 @@
         <v>2321</v>
       </c>
       <c r="B2323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2324">
@@ -19220,7 +19220,7 @@
         <v>2347</v>
       </c>
       <c r="B2349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2350">
@@ -19620,7 +19620,7 @@
         <v>2397</v>
       </c>
       <c r="B2399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2400">
@@ -19788,7 +19788,7 @@
         <v>2418</v>
       </c>
       <c r="B2420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2421">
@@ -20148,7 +20148,7 @@
         <v>2463</v>
       </c>
       <c r="B2465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2466">
@@ -20676,7 +20676,7 @@
         <v>2529</v>
       </c>
       <c r="B2531" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2532">
@@ -20852,7 +20852,7 @@
         <v>2551</v>
       </c>
       <c r="B2553" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2554">
@@ -21020,7 +21020,7 @@
         <v>2572</v>
       </c>
       <c r="B2574" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2575">
@@ -21756,7 +21756,7 @@
         <v>2664</v>
       </c>
       <c r="B2666" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2667">
@@ -22004,7 +22004,7 @@
         <v>2695</v>
       </c>
       <c r="B2697" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2698">
@@ -22204,7 +22204,7 @@
         <v>2720</v>
       </c>
       <c r="B2722" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2723">
@@ -22436,7 +22436,7 @@
         <v>2749</v>
       </c>
       <c r="B2751" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2752">
@@ -22708,7 +22708,7 @@
         <v>2783</v>
       </c>
       <c r="B2785" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2786">
@@ -23220,7 +23220,7 @@
         <v>2847</v>
       </c>
       <c r="B2849" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2850">
@@ -24324,7 +24324,7 @@
         <v>2985</v>
       </c>
       <c r="B2987" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2988">
@@ -24764,7 +24764,7 @@
         <v>3040</v>
       </c>
       <c r="B3042" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3043">
@@ -24996,7 +24996,7 @@
         <v>3069</v>
       </c>
       <c r="B3071" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3072">
@@ -25132,7 +25132,7 @@
         <v>3086</v>
       </c>
       <c r="B3088" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3089">
@@ -25540,7 +25540,7 @@
         <v>3137</v>
       </c>
       <c r="B3139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3140">
@@ -25884,7 +25884,7 @@
         <v>3180</v>
       </c>
       <c r="B3182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3183">
@@ -25964,7 +25964,7 @@
         <v>3190</v>
       </c>
       <c r="B3192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3193">
@@ -26444,7 +26444,7 @@
         <v>3250</v>
       </c>
       <c r="B3252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3253">
@@ -26604,7 +26604,7 @@
         <v>3270</v>
       </c>
       <c r="B3272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3273">
@@ -29260,7 +29260,7 @@
         <v>3602</v>
       </c>
       <c r="B3604" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3605">
@@ -29300,7 +29300,7 @@
         <v>3607</v>
       </c>
       <c r="B3609" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3610">
@@ -29812,7 +29812,7 @@
         <v>3671</v>
       </c>
       <c r="B3673" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3674">
@@ -32708,7 +32708,7 @@
         <v>4033</v>
       </c>
       <c r="B4035" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4036">
@@ -32908,7 +32908,7 @@
         <v>4058</v>
       </c>
       <c r="B4060" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4061">
@@ -33860,7 +33860,7 @@
         <v>4177</v>
       </c>
       <c r="B4179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4180">
@@ -34148,7 +34148,7 @@
         <v>4213</v>
       </c>
       <c r="B4215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4216">
@@ -35356,7 +35356,7 @@
         <v>4364</v>
       </c>
       <c r="B4366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4367">
@@ -35444,7 +35444,7 @@
         <v>4375</v>
       </c>
       <c r="B4377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4378">
@@ -35716,7 +35716,7 @@
         <v>4409</v>
       </c>
       <c r="B4411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4412">
@@ -35932,7 +35932,7 @@
         <v>4436</v>
       </c>
       <c r="B4438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4439">
@@ -37428,7 +37428,7 @@
         <v>4623</v>
       </c>
       <c r="B4625" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4626">
@@ -37692,7 +37692,7 @@
         <v>4656</v>
       </c>
       <c r="B4658" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4659">
@@ -38068,7 +38068,7 @@
         <v>4703</v>
       </c>
       <c r="B4705" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4706">
@@ -38332,7 +38332,7 @@
         <v>4736</v>
       </c>
       <c r="B4738" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4739">
@@ -38716,7 +38716,7 @@
         <v>4784</v>
       </c>
       <c r="B4786" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4787">
@@ -38724,7 +38724,7 @@
         <v>4785</v>
       </c>
       <c r="B4787" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4788">
@@ -38900,7 +38900,7 @@
         <v>4807</v>
       </c>
       <c r="B4809" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4810">
@@ -39188,7 +39188,7 @@
         <v>4843</v>
       </c>
       <c r="B4845" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4846">
@@ -39284,7 +39284,7 @@
         <v>4855</v>
       </c>
       <c r="B4857" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4858">
@@ -39340,7 +39340,7 @@
         <v>4862</v>
       </c>
       <c r="B4864" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4865">
@@ -39516,7 +39516,7 @@
         <v>4884</v>
       </c>
       <c r="B4886" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4887">
@@ -39684,7 +39684,7 @@
         <v>4905</v>
       </c>
       <c r="B4907" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4908">
@@ -39996,7 +39996,7 @@
         <v>4944</v>
       </c>
       <c r="B4946" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4947">
@@ -40092,7 +40092,7 @@
         <v>4956</v>
       </c>
       <c r="B4958" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4959">
